--- a/DungeonShooting_Godot/excel/BuffBase.xlsx
+++ b/DungeonShooting_Godot/excel/BuffBase.xlsx
@@ -60,7 +60,7 @@
     <t>boolean</t>
   </si>
   <si>
-    <t>{string:[float]}</t>
+    <t>{string:[float]}*</t>
   </si>
   <si>
     <t>0001</t>
@@ -72,9 +72,7 @@
     <t>prop0001</t>
   </si>
   <si>
-    <t>{
-"MoveSpeed": [30]
-}</t>
+    <t>"MoveSpeed": [30]</t>
   </si>
   <si>
     <t>0010</t>
@@ -86,12 +84,11 @@
     <t>prop0010</t>
   </si>
   <si>
-    <t>{
-"BulletCount":[2,1],
+    <t>"BulletCount":[2,1],
 "BulletDeviationAngle":[-8,8],
 "Damage":[2,-0.35],
-"BulletRepel":[2,-0.35]
-}</t>
+"BulletRepel":[2,-0.35],
+"RandomBulletSpeed":[-0.05,0.05]</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1084,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1150,7 +1147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" ht="57" customHeight="1" spans="1:5">
+    <row r="4" ht="33" customHeight="1" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>

--- a/DungeonShooting_Godot/excel/BuffBase.xlsx
+++ b/DungeonShooting_Godot/excel/BuffBase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
   <si>
     <t>Id</t>
   </si>
@@ -73,6 +73,103 @@
   </si>
   <si>
     <t>"MoveSpeed": [30]</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>心之容器</t>
+  </si>
+  <si>
+    <t>prop0002</t>
+  </si>
+  <si>
+    <t>"MaxHp":[2]</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>护盾</t>
+  </si>
+  <si>
+    <t>prop0003</t>
+  </si>
+  <si>
+    <t>"MaxShield":[1]</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>护盾计时器</t>
+  </si>
+  <si>
+    <t>prop0004</t>
+  </si>
+  <si>
+    <t>"ShieldRecoveryTime":[2.5]</t>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>杀伤弹</t>
+  </si>
+  <si>
+    <t>prop0005</t>
+  </si>
+  <si>
+    <t>"Damage":[2,0.2]</t>
+  </si>
+  <si>
+    <t>0006</t>
+  </si>
+  <si>
+    <t>红宝石戒指</t>
+  </si>
+  <si>
+    <t>prop0006</t>
+  </si>
+  <si>
+    <t>"WoundedInvincibleTime":[2]</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>备用护盾</t>
+  </si>
+  <si>
+    <t>prop0007</t>
+  </si>
+  <si>
+    <t>"OffsetInjury":[0.15]</t>
+  </si>
+  <si>
+    <t>0008</t>
+  </si>
+  <si>
+    <t>眼镜</t>
+  </si>
+  <si>
+    <t>prop0008</t>
+  </si>
+  <si>
+    <t>"Scattering":[0.5]</t>
+  </si>
+  <si>
+    <t>0009</t>
+  </si>
+  <si>
+    <t>高速子弹</t>
+  </si>
+  <si>
+    <t>prop0009</t>
+  </si>
+  <si>
+    <t>"BulletSpeed":[2,0.25],
+"BulletDistance":[2,0.25]</t>
   </si>
   <si>
     <t>0010</t>
@@ -89,6 +186,318 @@
 "Damage":[2,-0.35],
 "BulletRepel":[2,-0.35],
 "RandomBulletSpeed":[-0.05,0.05]</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>弹射子弹</t>
+  </si>
+  <si>
+    <t>prop0011</t>
+  </si>
+  <si>
+    <t>"BulletBounceCount":[2]</t>
+  </si>
+  <si>
+    <t>0012</t>
+  </si>
+  <si>
+    <t>穿透子弹</t>
+  </si>
+  <si>
+    <t>prop0012</t>
+  </si>
+  <si>
+    <t>"BulletPenetration":[1]</t>
+  </si>
+  <si>
+    <t>0013</t>
+  </si>
+  <si>
+    <t>武器背包</t>
+  </si>
+  <si>
+    <t>prop0013</t>
+  </si>
+  <si>
+    <t>"WeaponCapacity":[1]</t>
+  </si>
+  <si>
+    <t>0014</t>
+  </si>
+  <si>
+    <t>道具背包</t>
+  </si>
+  <si>
+    <t>prop0014</t>
+  </si>
+  <si>
+    <t>"ActivePropsCapacity":[1]</t>
+  </si>
+  <si>
+    <t>ActivePropsCapacity: 主动道具背包容量 buff, 参数‘1’为主动道具背包增加的容量</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BulletBounceCount: 子弹弹射数量 buff, 参数‘1’为增加的弹射次数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BulletCount: 子弹数量 buff, 参数‘1’为子弹数量添加类型, 1: 具体数量, 2:百分比(小数), 参数‘2’为增加子弹的数量</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BulletDeviationAngle: 子弹偏移角度 buff, 参数‘1’为增加子弹偏移角度下限, 参数‘2’为增加子弹偏移角度上限, 单位角度制, 会从上限和下限随机抽取值</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BulletDistance: 子弹射程 buff, 参数‘1’为射程增加类型: 1:具体射程, 2:百分比射程(小数), 参数‘2’为子弹增加的射程值</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BulletPenetration: 子弹穿透次数 buff, 参数‘1’为增加的穿透次数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BulletRepel: 子弹击退 buff, 参数‘1’为击退增加类型: 1:具体击退值, 2:百分比击退值(小数), 参数‘2’为子弹增加的击退值</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BulletSpeed: 子弹速度 buff, 参数‘1’为射速增加类型: 1:具体射速, 2:百分比射速(小数), 参数‘2’为子弹增加的射速值</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Damage: 提升伤害buff, 参数‘1’为伤害增加类型: 1:具体伤害, 2:百分比伤害(小数), 参数‘2’为增益伤害值</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MaxHp: 血量上限 buff, 参数‘1’为血量上限值</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MaxShield: 护盾上限buff, 参数‘1’为护盾上限</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MoveSpeed: 移速 buff, 参数‘1’为移动速度值</t>
+    </r>
+  </si>
+  <si>
+    <t>OffsetInjury: 受伤时有概率抵消伤害的buff, 参数‘1’为抵消伤害概率百分比(小数)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RandomBulletSpeed: 子弹增加随机速度 buff, 参数‘1’为增加子弹速度下限, 参数‘2’为增加子弹速度上限, 会从上限和下限随机抽取值</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scattering: 提高武器精准度buff, 参数‘1’为提升的精准度百分比值(小数)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ShieldRecoveryTime: 单格护盾恢复时间, 参数‘1’单位: 秒</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WeaponCapacity: 武器背包容量 buff, 参数‘1’为武器背包增加的容量</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">WoundedInvincibleTime: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color theme="1"/>
+        <rFont val="pingfang sc"/>
+        <charset val="134"/>
+      </rPr>
+      <t>延长无敌时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">buff, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color theme="1"/>
+        <rFont val="pingfang sc"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>‘1’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color theme="1"/>
+        <rFont val="pingfang sc"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为延长时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color theme="1"/>
+        <rFont val="pingfang sc"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单位秒</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -101,9 +510,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -258,6 +674,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color theme="1"/>
+      <name val="pingfang sc"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -580,139 +1002,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -721,9 +1149,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1077,36 +1505,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="21.2307692307692" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.4903846153846" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7692307692308" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.2307692307692" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.2307692307692" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.5480769230769" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.7692307692308" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.2307692307692" style="4" customWidth="1"/>
     <col min="5" max="5" width="51" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1114,33 +1542,33 @@
       </c>
     </row>
     <row r="2" ht="102" customHeight="1" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
@@ -1148,122 +1576,419 @@
       </c>
     </row>
     <row r="4" ht="33" customHeight="1" spans="1:5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="b">
+      <c r="D4" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="87" customHeight="1" spans="1:5">
-      <c r="A5" s="3" t="s">
+    <row r="5" ht="33" customHeight="1" spans="1:5">
+      <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="b">
+      <c r="D5" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="14" customHeight="1"/>
-    <row r="7" ht="14" customHeight="1"/>
-    <row r="8" ht="14" customHeight="1"/>
-    <row r="9" ht="14" customHeight="1"/>
-    <row r="10" ht="14" customHeight="1"/>
-    <row r="11" ht="14" customHeight="1"/>
-    <row r="12" ht="14" customHeight="1"/>
-    <row r="13" ht="14" customHeight="1"/>
-    <row r="14" ht="14" customHeight="1"/>
-    <row r="15" ht="14" customHeight="1"/>
-    <row r="16" ht="14" customHeight="1"/>
-    <row r="17" ht="14" customHeight="1"/>
+    <row r="6" ht="33" customHeight="1" spans="1:5">
+      <c r="A6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="33" customHeight="1" spans="1:5">
+      <c r="A7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" ht="33" customHeight="1" spans="1:5">
+      <c r="A8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" ht="33" customHeight="1" spans="1:5">
+      <c r="A9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" ht="33" customHeight="1" spans="1:5">
+      <c r="A10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" ht="33" customHeight="1" spans="1:5">
+      <c r="A11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" ht="33" customHeight="1" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" ht="87" customHeight="1" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" ht="28" customHeight="1" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" ht="36" customHeight="1" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" ht="29" customHeight="1" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" ht="34" customHeight="1" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
+    </row>
     <row r="18" ht="14" customHeight="1"/>
     <row r="19" ht="14" customHeight="1"/>
-    <row r="20" ht="13" customHeight="1"/>
-    <row r="21" ht="13" customHeight="1"/>
-    <row r="22" ht="13" customHeight="1"/>
-    <row r="23" ht="13" customHeight="1"/>
-    <row r="24" ht="13" customHeight="1"/>
-    <row r="25" ht="13" customHeight="1"/>
-    <row r="26" ht="13" customHeight="1" spans="1:1">
-      <c r="A26" s="4"/>
-    </row>
-    <row r="27" ht="13" customHeight="1" spans="1:1">
-      <c r="A27" s="4"/>
-    </row>
-    <row r="28" ht="13" customHeight="1" spans="1:1">
-      <c r="A28" s="4"/>
-    </row>
-    <row r="29" ht="13" customHeight="1" spans="1:1">
-      <c r="A29" s="4"/>
-    </row>
-    <row r="30" ht="13" customHeight="1" spans="1:1">
-      <c r="A30" s="4"/>
-    </row>
-    <row r="31" ht="13" customHeight="1" spans="1:1">
-      <c r="A31" s="4"/>
-    </row>
-    <row r="32" ht="13" customHeight="1" spans="1:1">
-      <c r="A32" s="4"/>
-    </row>
-    <row r="33" ht="13" customHeight="1" spans="1:1">
-      <c r="A33" s="4"/>
-    </row>
+    <row r="20" ht="14" customHeight="1"/>
+    <row r="21" ht="14" customHeight="1"/>
+    <row r="22" ht="14" customHeight="1"/>
+    <row r="23" ht="14" customHeight="1"/>
+    <row r="24" ht="14" customHeight="1"/>
+    <row r="25" ht="14" customHeight="1"/>
+    <row r="26" ht="14" customHeight="1"/>
+    <row r="27" ht="14" customHeight="1"/>
+    <row r="28" ht="13" customHeight="1"/>
+    <row r="29" ht="13" customHeight="1"/>
+    <row r="30" ht="13" customHeight="1"/>
+    <row r="31" ht="13" customHeight="1"/>
+    <row r="32" ht="13" customHeight="1"/>
+    <row r="33" ht="13" customHeight="1"/>
     <row r="34" ht="13" customHeight="1" spans="1:1">
-      <c r="A34" s="4"/>
+      <c r="A34" s="6"/>
     </row>
     <row r="35" ht="13" customHeight="1" spans="1:1">
-      <c r="A35" s="4"/>
+      <c r="A35" s="6"/>
     </row>
     <row r="36" ht="13" customHeight="1" spans="1:1">
-      <c r="A36" s="4"/>
+      <c r="A36" s="6"/>
     </row>
     <row r="37" ht="13" customHeight="1" spans="1:1">
-      <c r="A37" s="4"/>
-    </row>
-    <row r="38" ht="13" customHeight="1"/>
-    <row r="39" ht="13" customHeight="1"/>
-    <row r="40" ht="13" customHeight="1"/>
-    <row r="41" ht="13" customHeight="1"/>
-    <row r="42" ht="13" customHeight="1"/>
-    <row r="43" ht="13" customHeight="1"/>
-    <row r="44" ht="13" customHeight="1"/>
-    <row r="45" ht="13" customHeight="1"/>
+      <c r="A37" s="6"/>
+    </row>
+    <row r="38" ht="13" customHeight="1" spans="1:1">
+      <c r="A38" s="6"/>
+    </row>
+    <row r="39" ht="13" customHeight="1" spans="1:1">
+      <c r="A39" s="6"/>
+    </row>
+    <row r="40" ht="13" customHeight="1" spans="1:1">
+      <c r="A40" s="6"/>
+    </row>
+    <row r="41" ht="13" customHeight="1" spans="1:1">
+      <c r="A41" s="6"/>
+    </row>
+    <row r="42" ht="13" customHeight="1" spans="1:1">
+      <c r="A42" s="6"/>
+    </row>
+    <row r="43" ht="13" customHeight="1" spans="1:1">
+      <c r="A43" s="6"/>
+    </row>
+    <row r="44" ht="13" customHeight="1" spans="1:1">
+      <c r="A44" s="6"/>
+    </row>
+    <row r="45" ht="13" customHeight="1" spans="1:1">
+      <c r="A45" s="6"/>
+    </row>
     <row r="46" ht="13" customHeight="1"/>
+    <row r="47" ht="13" customHeight="1"/>
+    <row r="48" ht="13" customHeight="1"/>
+    <row r="49" ht="13" customHeight="1"/>
+    <row r="50" ht="13" customHeight="1"/>
+    <row r="51" ht="13" customHeight="1"/>
+    <row r="52" ht="13" customHeight="1"/>
+    <row r="53" ht="13" customHeight="1"/>
+    <row r="54" ht="13" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="A13" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B2:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="164.413461538462" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
